--- a/medicine/Pharmacie/Paraldéhyde/Paraldéhyde.xlsx
+++ b/medicine/Pharmacie/Paraldéhyde/Paraldéhyde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le paraldéhyde (C2H4O)3 est un liquide bouillant à 125 °C obtenu par polymérisation de l'éthanal.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paraldéhyde est un trimère qui se présente sous la forme d'un cycle alterné de six atomes de carbone et d'oxygène avec un atome d'hydrogène et un groupe méthyl relié à chaque atome de carbone. Le tétramère (CH3CHO)4 est le métaldéhyde dont la structure est proche du trimère, mais avec un cycle à huit entités.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le prépare à des fins commerciales par polymérisation de l'acétaldéhyde en présence d'une faible quantité d'acide sulfurique. Il est ensuite neutralisé par du carbonate de calcium puis purifié par distillation fractionnée.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>solvant pour graisses, huiles, cires, caoutchouc, résines ;
 produit de remplacement de l'acétaldéhyde ;
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Applications médicales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paraldéhyde a été introduit dans la pratique clinique par le médecin italien Vincenzo Cervello en 1882. Il agit comme dépresseur du système nerveux central et anticonvulsant. C'est un somnifère et un sédatif efficace. Il a été prescrit dans la médecine contre la toux comme expectorant. Il a été largement utilisé pour faciliter le sommeil des patients souffrant de delirium tremens bien qu'il ait été remplacé depuis par d'autres composés. Jusque dans les années 60, il a été un des somnifères les plus sûrs, employé pour endormir les patients en hôpital psychiatrique et en gériatrie. Environ 30 % de la dose administrée s'évacue par les poumons et le reste par le foie, ce qui donne une mauvaise odeur à l'haleine.
 Aujourd'hui, le paraldéhyde est utilisé d'une manière non systématique dans le traitement de l'épilepsie. Contrairement au diazépam et autres benzodiazépines, il n'altère pas la respiration à des doses thérapeutiques.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parald%C3%A9hyde</t>
+          <t>Paraldéhyde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>On peut prescrire le paraldéhyde de manière orale, rectale, ou par injection intraveineuse ou intramusculaire. Comme il réagit avec le caoutchouc et le plastique, il convient de limiter le temps de contact du liquide avec les seringues avant injection.
 par injection : les injections intramusculaires peuvent être très douloureuses et peuvent conduire à des abcès, à une altération des nerfs ou à une nécrose des tissus. Une injection intraveineuse peut déclencher un œdème pulmonaire, un arrêt circulatoire ou d'autres complications ;
